--- a/lista.xlsx
+++ b/lista.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EC99A-E9B0-4620-8434-84622149F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BA70B-BFB2-4C3B-8F71-106035F4A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="21600" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="12" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Projeção Financeira" sheetId="4" r:id="rId3"/>
     <sheet name="Padrões" sheetId="14" r:id="rId4"/>
     <sheet name="Planilha2" sheetId="18" r:id="rId5"/>
+    <sheet name="Guardar" sheetId="19" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="TítuloDaColuna1">#REF!</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="132">
   <si>
     <t>Reserva</t>
   </si>
@@ -416,6 +417,24 @@
   </si>
   <si>
     <t>JUN|Férias</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Quem</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor </t>
+  </si>
+  <si>
+    <t>Guardando Casal</t>
   </si>
 </sst>
 </file>
@@ -429,9 +448,9 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="mmmm\,\ yyyy;@"/>
-    <numFmt numFmtId="176" formatCode="dddd"/>
+    <numFmt numFmtId="170" formatCode="dddd"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="11"/>
@@ -667,8 +686,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +963,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,7 +1390,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1444,28 +1484,160 @@
     <xf numFmtId="0" fontId="29" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="44" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="34" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="33" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="45" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="41" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="46" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="29" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,13 +1646,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,151 +1664,28 @@
     <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="44" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="34" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="33" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="45" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="41" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="46" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1688,7 +1740,7 @@
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1710,84 +1762,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1798,30 +1773,19 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1832,77 +1796,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1923,401 +1825,32 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
+          <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="1"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <border outline="0">
         <right style="thin">
           <color theme="1"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aharoni"/>
-        <charset val="177"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2429,6 +1962,20 @@
       <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2453,6 +2000,543 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="mmmm\,\ yyyy;@"/>
@@ -2494,9 +2578,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Tarefas" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tarefas" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstColumn" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2519,7 +2603,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2C4E7B8B-1E69-494B-B6E4-83992BCEC089}" name="Tabela10" displayName="Tabela10" ref="A1:D1048575" totalsRowShown="0">
   <autoFilter ref="A1:D1048575" xr:uid="{2C4E7B8B-1E69-494B-B6E4-83992BCEC089}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{66FD0B0B-2B5A-4A27-BF5A-14DDD6D1DA9F}" name="Mês" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{66FD0B0B-2B5A-4A27-BF5A-14DDD6D1DA9F}" name="Mês" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{E0E2E344-4059-478E-8380-A62A4544D313}" name="Categoria"/>
     <tableColumn id="4" xr3:uid="{81CA6082-7653-41D5-B700-A3339C1416E3}" name="Detalhe"/>
     <tableColumn id="3" xr3:uid="{57833B8B-4CC0-4759-A6E4-EBE9258D7588}" name="Valor"/>
@@ -2529,21 +2613,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}" name="Tabela14" displayName="Tabela14" ref="B1:M29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
-  <autoFilter ref="B1:M29" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}" name="Tabela14" displayName="Tabela14" ref="B1:M33" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="B1:M33" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DC98BF17-25EA-4A6D-A222-0C9268770B6B}" name="DETALHES" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6AB029B8-38B5-479B-9F3C-1BEDEB88A31C}" name="Cartão Sicoob" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{565EEFCA-787E-4372-B972-8B3B535E433D}" name="Conta Sicoob" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{56614E03-20EB-4F91-8C35-C68E166BF43D}" name="Compras Patricia" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{1B1C7D1D-F1C7-4923-B69F-7ABD629E17B9}" name="Cartão Inter" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{5C53C81A-C32C-4C73-8CE3-76CA24CD54F7}" name="Cartão Nu" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{44A368D6-63DA-4E81-8C29-B763E9C245BD}" name="Pic Itaú" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D2B1D471-83C1-4DDC-99B0-AC1D19F716D0}" name="em Itaú" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{DE6A3E11-694E-4E3E-BE85-1EBA8E61EB49}" name="Outros" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{303C8697-2EC3-4253-9ED7-1BC6C1427657}" name="Pix" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{208090BE-2051-4E00-822F-7E0A126A3550}" name="Limite" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{3892E13E-0BEA-44F3-9F46-7F7E5036F4C2}" name="TOTAL" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{DC98BF17-25EA-4A6D-A222-0C9268770B6B}" name="DETALHES" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{6AB029B8-38B5-479B-9F3C-1BEDEB88A31C}" name="Cartão Sicoob" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{565EEFCA-787E-4372-B972-8B3B535E433D}" name="Conta Sicoob" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{56614E03-20EB-4F91-8C35-C68E166BF43D}" name="Compras Patricia" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{1B1C7D1D-F1C7-4923-B69F-7ABD629E17B9}" name="Cartão Inter" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{5C53C81A-C32C-4C73-8CE3-76CA24CD54F7}" name="Cartão Nu" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{44A368D6-63DA-4E81-8C29-B763E9C245BD}" name="Pic Itaú" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{D2B1D471-83C1-4DDC-99B0-AC1D19F716D0}" name="em Itaú" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{DE6A3E11-694E-4E3E-BE85-1EBA8E61EB49}" name="Outros" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{303C8697-2EC3-4253-9ED7-1BC6C1427657}" name="Pix" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{208090BE-2051-4E00-822F-7E0A126A3550}" name="Limite" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{3892E13E-0BEA-44F3-9F46-7F7E5036F4C2}" name="TOTAL" dataDxfId="22">
       <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2555,13 +2639,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70BD0F2F-2DCC-4742-B88C-11181A89C3DE}" name="Tabela1" displayName="Tabela1" ref="F2:I17" totalsRowShown="0">
   <autoFilter ref="F2:I17" xr:uid="{70BD0F2F-2DCC-4742-B88C-11181A89C3DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:I17">
-    <sortCondition ref="G2:G17"/>
+    <sortCondition ref="H2:H17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3D9FD61-F40A-42C1-A346-F7CEFA346346}" name="Item" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{13531D0C-2026-45F4-AF9B-B2DDF27ADF47}" name="Tipo" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DBCE5185-37EB-4E27-B7C7-873A781711FA}" name="Valor (em reais)" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{84E45942-56ED-4DF4-B610-9D69B3E98706}" name="Em um ano " dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{D3D9FD61-F40A-42C1-A346-F7CEFA346346}" name="Item" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{13531D0C-2026-45F4-AF9B-B2DDF27ADF47}" name="Tipo" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{DBCE5185-37EB-4E27-B7C7-873A781711FA}" name="Valor (em reais)" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{84E45942-56ED-4DF4-B610-9D69B3E98706}" name="Em um ano " dataDxfId="18">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2574,9 +2658,9 @@
   <autoFilter ref="A2:D15" xr:uid="{2F104304-A7A1-4C5B-A8E2-07F7BFE24153}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7391447C-F2CB-42B1-B905-9F6B3B988BCE}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{716A4D9F-914D-4AC8-8016-CDA5160F813D}" name="Valor (em reais)" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{B7352B0B-A9B9-459D-97D5-4DC64C9EC5E6}" name="Detalhe" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{E899AD60-F710-4F49-8F95-37AEADD1D8BA}" name="Em um ano " dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{716A4D9F-914D-4AC8-8016-CDA5160F813D}" name="Valor (em reais)" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{B7352B0B-A9B9-459D-97D5-4DC64C9EC5E6}" name="Detalhe" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{E899AD60-F710-4F49-8F95-37AEADD1D8BA}" name="Em um ano " dataDxfId="15">
       <calculatedColumnFormula>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2585,12 +2669,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}" name="Tabela1616" displayName="Tabela1616" ref="K2:M9" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}" name="Tabela1616" displayName="Tabela1616" ref="K2:M9" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="K2:M9" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{027FB6AB-4D72-47CF-B67C-6C5C719C8074}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{0490FA6B-03EC-48A1-87AC-1A67672827BF}" name="Valor (em reais)" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{97DE0BDE-5EA8-4E4B-A511-F417889C49DE}" name="Em um ano " dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{0490FA6B-03EC-48A1-87AC-1A67672827BF}" name="Valor (em reais)" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{97DE0BDE-5EA8-4E4B-A511-F417889C49DE}" name="Em um ano " dataDxfId="12">
       <calculatedColumnFormula>SUM(Tabela1616[[#This Row],[Valor (em reais)]]*12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2599,12 +2683,30 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}" name="Tabela9" displayName="Tabela9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32" headerRowCellStyle="Título 2" dataCellStyle="Detalhes da tabela">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}" name="Tabela9" displayName="Tabela9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7" headerRowCellStyle="Título 2" dataCellStyle="Detalhes da tabela">
   <autoFilter ref="A1:A8" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D46D04CE-4792-4FA4-B13C-1C8F73206D89}" name="Despesas" dataDxfId="31" dataCellStyle="Detalhes da tabela"/>
+    <tableColumn id="1" xr3:uid="{D46D04CE-4792-4FA4-B13C-1C8F73206D89}" name="Despesas" dataDxfId="6" dataCellStyle="Detalhes da tabela"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{419A3203-8808-4EEF-BF8F-B6306F519D4D}" name="Tabela13" displayName="Tabela13" ref="A2:D17" totalsRowShown="0">
+  <autoFilter ref="A2:D17" xr:uid="{419A3203-8808-4EEF-BF8F-B6306F519D4D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
+    <sortCondition ref="C2:C17"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9756BCD0-1411-441D-9094-8D7F67FBA131}" name="Mês" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1F0B931D-509C-4936-936F-43D26DD71006}" name="Quem" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D1E15C56-FC0B-4794-8499-3894AC8E4D5D}" name="Valor " dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{7843531B-DD0E-489D-9CD1-9EC3DC97C091}" name="Total" dataDxfId="2">
+      <calculatedColumnFormula>Tabela13[[#This Row],[Valor ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3018,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD542D27-9301-4C9F-891B-53BF451B4FC1}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:N21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,7 +3142,7 @@
     <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3049,7 +3151,7 @@
       <c r="A1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -3082,7 +3184,7 @@
       <c r="L1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="30" t="s">
@@ -3099,10 +3201,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="23">
@@ -3131,24 +3233,24 @@
       <c r="L2" s="23">
         <v>0</v>
       </c>
-      <c r="M2" s="42">
-        <f>SUM(C2:L2)</f>
+      <c r="M2" s="35">
+        <f t="shared" ref="M2:M23" si="0">SUM(C2:L2)</f>
         <v>-13172.380000000001</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="72">
         <v>6157.64</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="72">
         <f>SUM(M3+N2)</f>
         <v>-0.75999999999930878</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="39"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3178,20 +3280,20 @@
       <c r="L3" s="21">
         <v>0</v>
       </c>
-      <c r="M3" s="33">
-        <f>SUM(C3:L3)</f>
+      <c r="M3" s="31">
+        <f t="shared" si="0"/>
         <v>-6158.4</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="23">
@@ -3220,24 +3322,24 @@
       <c r="L4" s="23">
         <v>0</v>
       </c>
-      <c r="M4" s="42">
-        <f>SUM(C4:L4)</f>
+      <c r="M4" s="35">
+        <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="72">
         <v>6763.26</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="72">
         <f>SUM(M5+N4)</f>
         <v>-718.07999999999993</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="39"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -3267,20 +3369,20 @@
       <c r="L5" s="21">
         <v>0</v>
       </c>
-      <c r="M5" s="33">
-        <f>SUM(C5:L5)</f>
+      <c r="M5" s="31">
+        <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="23">
@@ -3309,22 +3411,24 @@
       <c r="L6" s="23">
         <v>-2495.52</v>
       </c>
-      <c r="M6" s="42">
-        <f>SUM(C6:L6)</f>
+      <c r="M6" s="35">
+        <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N6" s="37">
-        <v>2200</v>
-      </c>
-      <c r="O6" s="37">
+      <c r="N6" s="72">
+        <v>1623.93</v>
+      </c>
+      <c r="O6" s="72">
         <f>SUM(M7+N6)</f>
-        <v>-295.52</v>
-      </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+        <v>-871.58999999999992</v>
+      </c>
+      <c r="P6" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="75"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -3354,39 +3458,41 @@
       <c r="L7" s="21">
         <v>-2495.52</v>
       </c>
-      <c r="M7" s="33">
-        <f>SUM(C7:L7)</f>
+      <c r="M7" s="31">
+        <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="23">
         <v>-944.66</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="68">
         <v>-18.899999999999999</v>
       </c>
       <c r="E8" s="23">
-        <v>-346.86</v>
+        <v>-498.65</v>
       </c>
       <c r="F8" s="23">
         <v>-1402.36</v>
       </c>
       <c r="G8" s="23">
-        <v>-254.63</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23">
+        <v>-656.71</v>
+      </c>
+      <c r="H8" s="68">
+        <v>-60</v>
+      </c>
+      <c r="I8" s="68">
         <v>-1563.66</v>
       </c>
       <c r="J8" s="23">
@@ -3396,46 +3502,50 @@
         <v>0</v>
       </c>
       <c r="L8" s="23">
-        <v>-295.52</v>
-      </c>
-      <c r="M8" s="42">
-        <f>SUM(C8:L8)</f>
-        <v>-4826.59</v>
-      </c>
-      <c r="N8" s="37">
-        <v>3600</v>
-      </c>
-      <c r="O8" s="37">
+        <v>-1233.79</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="0"/>
+        <v>-6378.73</v>
+      </c>
+      <c r="N8" s="72">
+        <v>3623</v>
+      </c>
+      <c r="O8" s="72">
         <f>SUM(M9+N8)</f>
-        <v>-1226.5900000000001</v>
-      </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31" t="s">
+        <v>-2755.7299999999996</v>
+      </c>
+      <c r="P8" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="75" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="21">
         <v>-944.66</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="69">
         <v>-18.899999999999999</v>
       </c>
       <c r="E9" s="21">
-        <v>-346.86</v>
+        <v>-498.65</v>
       </c>
       <c r="F9" s="21">
         <v>-1402.36</v>
       </c>
       <c r="G9" s="21">
-        <v>-254.63</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
+        <v>-656.71</v>
+      </c>
+      <c r="H9" s="69">
+        <v>-60</v>
+      </c>
+      <c r="I9" s="69">
         <v>-1563.66</v>
       </c>
       <c r="J9" s="21">
@@ -3445,26 +3555,26 @@
         <v>0</v>
       </c>
       <c r="L9" s="21">
-        <v>-295.52</v>
-      </c>
-      <c r="M9" s="33">
-        <f>SUM(C9:L9)</f>
-        <v>-4826.59</v>
-      </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+        <v>-1233.79</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="0"/>
+        <v>-6378.73</v>
+      </c>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="76"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="23">
-        <v>-104.08</v>
+        <v>-511.75</v>
       </c>
       <c r="D10" s="23">
         <v>-18.899999999999999</v>
@@ -3491,29 +3601,29 @@
         <v>0</v>
       </c>
       <c r="L10" s="23">
-        <v>-1207.69</v>
-      </c>
-      <c r="M10" s="42">
-        <f>SUM(C10:L10)</f>
-        <v>-4128.0400000000009</v>
-      </c>
-      <c r="N10" s="37">
+        <v>-2876.35</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="0"/>
+        <v>-6204.3700000000008</v>
+      </c>
+      <c r="N10" s="72">
         <v>3600</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="72">
         <f>SUM(M11+N10)</f>
-        <v>-528.04000000000087</v>
-      </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+        <v>-2604.3700000000008</v>
+      </c>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="21">
-        <v>-104.08</v>
+        <v>-511.75</v>
       </c>
       <c r="D11" s="21">
         <v>-18.899999999999999</v>
@@ -3540,29 +3650,29 @@
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <v>-1207.69</v>
-      </c>
-      <c r="M11" s="33">
-        <f>SUM(C11:L11)</f>
-        <v>-4128.0400000000009</v>
-      </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+        <v>-2876.35</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="0"/>
+        <v>-6204.3700000000008</v>
+      </c>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="23">
-        <v>-18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="23">
         <v>-3000</v>
@@ -3574,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="I12" s="23">
         <v>0</v>
@@ -3583,29 +3693,29 @@
         <v>0</v>
       </c>
       <c r="K12" s="23">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="L12" s="23">
-        <v>-449.14</v>
-      </c>
-      <c r="M12" s="42">
-        <f>SUM(C12:L12)</f>
-        <v>-3978.04</v>
-      </c>
-      <c r="N12" s="37">
+        <v>-2604.37</v>
+      </c>
+      <c r="M12" s="35">
+        <f t="shared" si="0"/>
+        <v>-5604.37</v>
+      </c>
+      <c r="N12" s="72">
         <v>4000</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="72">
         <f>SUM(M13+N12)</f>
-        <v>21.960000000000036</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3613,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="21">
-        <v>-18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E13" s="21">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -3625,7 +3735,8 @@
         <v>0</v>
       </c>
       <c r="H13" s="21">
-        <v>-60</v>
+        <f>D12</f>
+        <v>0</v>
       </c>
       <c r="I13" s="21">
         <v>0</v>
@@ -3634,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="K13" s="21">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="L13" s="21">
-        <v>-449.14</v>
-      </c>
-      <c r="M13" s="33">
-        <f>SUM(C13:L13)</f>
-        <v>-3978.04</v>
-      </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
+        <v>-2000</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="0"/>
+        <v>-4000</v>
+      </c>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="23">
@@ -3680,29 +3791,29 @@
         <v>0</v>
       </c>
       <c r="K14" s="23">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="42">
-        <f>SUM(C14:L14)</f>
-        <v>-3341.7</v>
-      </c>
-      <c r="N14" s="37">
+        <v>-604.37</v>
+      </c>
+      <c r="M14" s="35">
+        <f t="shared" si="0"/>
+        <v>-3496.0699999999997</v>
+      </c>
+      <c r="N14" s="72">
         <v>3600</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="72">
         <f>SUM(M15+N14)</f>
-        <v>258.30000000000018</v>
-      </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31" t="s">
+        <v>103.93000000000029</v>
+      </c>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
@@ -3731,119 +3842,119 @@
         <v>0</v>
       </c>
       <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>-604.37</v>
+      </c>
+      <c r="M15" s="32">
+        <f t="shared" si="0"/>
+        <v>-3496.0699999999997</v>
+      </c>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="49">
+        <v>-71.19</v>
+      </c>
+      <c r="D16" s="49">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E16" s="49">
+        <v>-235</v>
+      </c>
+      <c r="F16" s="49">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="G16" s="49">
+        <v>-239.54</v>
+      </c>
+      <c r="H16" s="49">
+        <v>-60</v>
+      </c>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49">
+        <v>0</v>
+      </c>
+      <c r="K16" s="49">
         <v>-450</v>
       </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="34">
-        <f>SUM(C15:L15)</f>
-        <v>-3341.7</v>
-      </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="68">
-        <v>-71.19</v>
-      </c>
-      <c r="D16" s="68">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="E16" s="68">
-        <v>-235</v>
-      </c>
-      <c r="F16" s="68">
-        <v>-133.33000000000001</v>
-      </c>
-      <c r="G16" s="68">
-        <v>-239.54</v>
-      </c>
-      <c r="H16" s="68">
-        <v>-60</v>
-      </c>
-      <c r="I16" s="68">
-        <v>0</v>
-      </c>
-      <c r="J16" s="68">
-        <v>0</v>
-      </c>
-      <c r="K16" s="68">
-        <v>-450</v>
-      </c>
-      <c r="L16" s="68">
-        <v>0</v>
-      </c>
-      <c r="M16" s="69">
-        <f>SUM(C16:L16)</f>
+      <c r="L16" s="49">
+        <v>0</v>
+      </c>
+      <c r="M16" s="50">
+        <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N16" s="70">
+      <c r="N16" s="87">
         <v>3600</v>
       </c>
-      <c r="O16" s="70">
+      <c r="O16" s="87">
         <f>SUM(M17+N16)</f>
         <v>2392.04</v>
       </c>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="72" t="s">
+      <c r="P16" s="93"/>
+      <c r="Q16" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="52">
         <v>-71.19</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="52">
         <v>-18.899999999999999</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="52">
         <v>-235</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="52">
         <v>-133.33000000000001</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="52">
         <v>-239.54</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="52">
         <v>-60</v>
       </c>
-      <c r="I17" s="75">
-        <v>0</v>
-      </c>
-      <c r="J17" s="75">
-        <v>0</v>
-      </c>
-      <c r="K17" s="75">
+      <c r="I17" s="52">
+        <v>0</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0</v>
+      </c>
+      <c r="K17" s="52">
         <v>-450</v>
       </c>
-      <c r="L17" s="75">
-        <v>0</v>
-      </c>
-      <c r="M17" s="75">
-        <f>SUM(C17:L17)</f>
+      <c r="L17" s="52">
+        <v>0</v>
+      </c>
+      <c r="M17" s="52">
+        <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="80"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="85" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -3879,24 +3990,24 @@
       <c r="L18" s="27">
         <v>0</v>
       </c>
-      <c r="M18" s="65">
-        <f>SUM(C18:L18)</f>
+      <c r="M18" s="47">
+        <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="77">
         <v>3600</v>
       </c>
-      <c r="O18" s="63">
-        <f t="shared" ref="O18:O20" si="0">SUM(M19+N18)</f>
+      <c r="O18" s="77">
+        <f t="shared" ref="O18:O20" si="1">SUM(M19+N18)</f>
         <v>2525.37</v>
       </c>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64" t="s">
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
@@ -3930,17 +4041,17 @@
       <c r="L19" s="25">
         <v>0</v>
       </c>
-      <c r="M19" s="34">
-        <f>SUM(C19:L19)</f>
+      <c r="M19" s="32">
+        <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -3950,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="23">
-        <v>-18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="27">
         <v>0</v>
@@ -3962,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="27">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -3976,22 +4087,22 @@
       <c r="L20" s="27">
         <v>0</v>
       </c>
-      <c r="M20" s="65">
-        <f>SUM(C20:L20)</f>
-        <v>-78.900000000000006</v>
-      </c>
-      <c r="N20" s="63">
+      <c r="M20" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="77">
         <v>2200</v>
       </c>
-      <c r="O20" s="63">
-        <f t="shared" si="0"/>
-        <v>2121.1</v>
-      </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="64"/>
+      <c r="O20" s="77">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="21">
-        <v>-18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -4011,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="21">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="I21" s="21">
         <v>0</v>
@@ -4022,23 +4133,23 @@
       <c r="K21" s="21">
         <v>0</v>
       </c>
-      <c r="L21" s="33">
-        <v>0</v>
-      </c>
-      <c r="M21" s="33">
-        <f>SUM(C21:L21)</f>
-        <v>-78.900000000000006</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="32"/>
+      <c r="L21" s="31">
+        <v>0</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="23">
@@ -4071,24 +4182,24 @@
       <c r="L22" s="23">
         <v>0</v>
       </c>
-      <c r="M22" s="42">
-        <f>SUM(C22:L22)</f>
+      <c r="M22" s="35">
+        <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="71">
         <v>3600</v>
       </c>
-      <c r="O22" s="37">
-        <f t="shared" ref="O22:O28" si="1">SUM(M23+N22)</f>
+      <c r="O22" s="72">
+        <f t="shared" ref="O22:O32" si="2">SUM(M23+N22)</f>
         <v>2760.37</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31" t="s">
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
@@ -4122,17 +4233,17 @@
       <c r="L23" s="25">
         <v>0</v>
       </c>
-      <c r="M23" s="34">
-        <f>SUM(C23:L23)</f>
+      <c r="M23" s="32">
+        <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="70" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -4145,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="27">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F24" s="27">
         <v>0</v>
@@ -4168,22 +4279,22 @@
       <c r="L24" s="27">
         <v>0</v>
       </c>
-      <c r="M24" s="65">
-        <f t="shared" ref="M24:M25" si="2">SUM(C24:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="36">
+      <c r="M24" s="47">
+        <f t="shared" ref="M24:M25" si="3">SUM(C24:L24)</f>
+        <v>-1000</v>
+      </c>
+      <c r="N24" s="71">
         <v>5000</v>
       </c>
-      <c r="O24" s="37">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="O24" s="72">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
@@ -4194,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="21">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F25" s="21">
         <v>0</v>
@@ -4214,23 +4325,23 @@
       <c r="K25" s="25">
         <v>0</v>
       </c>
-      <c r="L25" s="33">
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="L25" s="31">
+        <v>0</v>
+      </c>
+      <c r="M25" s="31">
+        <f t="shared" si="3"/>
+        <v>-1000</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="23">
@@ -4263,22 +4374,22 @@
       <c r="L26" s="23">
         <v>0</v>
       </c>
-      <c r="M26" s="42">
-        <f>SUM(C26:L26)</f>
+      <c r="M26" s="35">
+        <f t="shared" ref="M26:M29" si="4">SUM(C26:L26)</f>
         <v>-318.44</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="71">
         <v>1100</v>
       </c>
-      <c r="O26" s="37">
-        <f t="shared" si="1"/>
+      <c r="O26" s="72">
+        <f t="shared" si="2"/>
         <v>781.56</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
@@ -4312,20 +4423,20 @@
       <c r="L27" s="25">
         <v>0</v>
       </c>
-      <c r="M27" s="34">
-        <f>SUM(C27:L27)</f>
+      <c r="M27" s="32">
+        <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="23">
@@ -4358,24 +4469,24 @@
       <c r="L28" s="23">
         <v>0</v>
       </c>
-      <c r="M28" s="42">
-        <f>SUM(C28:L28)</f>
+      <c r="M28" s="35">
+        <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="71">
         <v>3600</v>
       </c>
-      <c r="O28" s="37">
-        <f t="shared" si="1"/>
+      <c r="O28" s="72">
+        <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31" t="s">
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
@@ -4409,31 +4520,255 @@
       <c r="L29" s="25">
         <v>0</v>
       </c>
-      <c r="M29" s="34">
-        <f>SUM(C29:L29)</f>
+      <c r="M29" s="32">
+        <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0</v>
+      </c>
+      <c r="D30" s="23">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>-239.54</v>
+      </c>
+      <c r="H30" s="23">
+        <v>-60</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" ref="M30:M31" si="5">SUM(C30:L30)</f>
+        <v>-318.44</v>
+      </c>
+      <c r="N30" s="71">
+        <v>3600</v>
+      </c>
+      <c r="O30" s="72">
+        <f t="shared" si="2"/>
+        <v>3281.56</v>
+      </c>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>-239.54</v>
+      </c>
+      <c r="H31" s="25">
+        <v>-60</v>
+      </c>
+      <c r="I31" s="25">
+        <v>0</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25">
+        <v>0</v>
+      </c>
+      <c r="M31" s="32">
+        <f t="shared" si="5"/>
+        <v>-318.44</v>
+      </c>
+      <c r="N31" s="71"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0</v>
+      </c>
+      <c r="D32" s="23">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-239.54</v>
+      </c>
+      <c r="H32" s="23">
+        <v>-60</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0</v>
+      </c>
+      <c r="M32" s="35">
+        <f t="shared" ref="M32:M33" si="6">SUM(C32:L32)</f>
+        <v>-318.44</v>
+      </c>
+      <c r="N32" s="71">
+        <v>3600</v>
+      </c>
+      <c r="O32" s="72">
+        <f t="shared" si="2"/>
+        <v>3281.56</v>
+      </c>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
+      <c r="B33" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>-239.54</v>
+      </c>
+      <c r="H33" s="25">
+        <v>-60</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <v>0</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" si="6"/>
+        <v>-318.44</v>
+      </c>
+      <c r="N33" s="71"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="A24:A25"/>
+  <mergeCells count="80">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="Q22:Q23"/>
@@ -4443,79 +4778,32 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="N24:N25"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P22:P23"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O7">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O13">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O29">
+  <conditionalFormatting sqref="O2:O33">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4524,8 +4812,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4534,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF574219-F3FE-4451-A9A8-FE36302370A0}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,30 +4838,30 @@
     <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="52" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
     <col min="11" max="13" width="19.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="F1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="K1" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4590,7 +4879,7 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -4624,17 +4913,17 @@
         <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>7.45</v>
       </c>
       <c r="I3" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>1200</v>
+        <v>89.4</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -4662,17 +4951,17 @@
         <v>3500</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="1">
-        <v>7.45</v>
+        <v>7.99</v>
       </c>
       <c r="I4" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>89.4</v>
+        <v>95.88</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
@@ -4700,17 +4989,17 @@
         <v>2000</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="1">
-        <v>7.99</v>
+        <v>10.95</v>
       </c>
       <c r="I5" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>95.88</v>
+        <v>131.39999999999998</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2">
@@ -4733,17 +5022,17 @@
         <v>2000</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="1">
-        <v>10.95</v>
+        <v>17.45</v>
       </c>
       <c r="I6" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>131.39999999999998</v>
+        <v>209.39999999999998</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2">
@@ -4766,17 +5055,17 @@
         <v>1271</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="H7" s="1">
-        <v>17.45</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I7" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>209.39999999999998</v>
+        <v>226.79999999999998</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2">
@@ -4801,7 +5090,7 @@
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="1">
@@ -4834,7 +5123,7 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="1">
@@ -4867,7 +5156,7 @@
       <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="41" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="1">
@@ -4895,17 +5184,17 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="41" t="s">
         <v>80</v>
       </c>
       <c r="H11" s="1">
-        <v>18.899999999999999</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>226.79999999999998</v>
+        <v>720</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
@@ -4915,20 +5204,20 @@
         <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="H12" s="1">
         <v>60</v>
@@ -4955,17 +5244,17 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
@@ -4975,27 +5264,27 @@
         <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2">
         <f>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="H14" s="1">
-        <v>129.9</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>1558.8000000000002</v>
+        <v>1200</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
@@ -5005,27 +5294,27 @@
         <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
+        <v>129.9</v>
       </c>
       <c r="I15" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>2400</v>
+        <v>1558.8000000000002</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
@@ -5035,17 +5324,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I16" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
@@ -5055,17 +5344,17 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>82</v>
+        <v>52</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I17" s="2">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
@@ -5081,57 +5370,57 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="46">
         <f>SUM(Tabela1[Valor (em reais)])</f>
         <v>1028.44</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="37" t="s">
         <v>57</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="46">
         <f>SUM(Tabela17[Valor (em reais)])</f>
-        <v>28871</v>
-      </c>
-      <c r="C20" s="61" t="s">
+        <v>29471</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="46">
         <f>SUM(D11:D15)</f>
-        <v>9600</v>
-      </c>
-      <c r="F20" s="60" t="s">
+        <v>10200</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="46">
         <f>SUM(Tabela1[[Em um ano ]])</f>
-        <v>12341.28</v>
-      </c>
-      <c r="H20" s="49">
+        <v>12341.279999999999</v>
+      </c>
+      <c r="H20" s="38">
         <f>SUM(G20/5)</f>
-        <v>2468.2560000000003</v>
+        <v>2468.2559999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="46">
         <f>SUM(Tabela17[[Em um ano ]])</f>
-        <v>28871</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="J21" s="53"/>
+        <v>29471</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="3" t="s">
         <v>9</v>
       </c>
@@ -5141,7 +5430,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J22" s="53"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
@@ -5151,30 +5440,30 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J24" s="53"/>
-      <c r="K24" s="58" t="s">
+      <c r="J24" s="39"/>
+      <c r="K24" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="44">
         <f>SUM(G19+L21)</f>
         <v>3028.44</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J25" s="53"/>
-      <c r="K25" s="58" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="44">
         <f>SUM(G20+L22)</f>
         <v>36341.279999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="44">
         <f>SUM(3600-L24)</f>
         <v>571.55999999999995</v>
       </c>
@@ -5273,10 +5562,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="55" t="s">
         <v>97</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -5284,218 +5573,438 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="88">
+      <c r="A2" s="59">
         <v>45292</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="53" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
+      <c r="A3" s="60">
         <v>45334</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="55" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
+      <c r="A4" s="60">
         <v>45335</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="55" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
+      <c r="A5" s="60">
         <v>45336</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="55" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6" s="60">
         <v>45350</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7" s="60">
         <v>45370</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="55" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="A8" s="60">
         <v>45379</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9" s="60">
         <v>45380</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="61">
         <v>45403</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="62">
         <v>45413</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="60">
         <v>45442</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="55" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="61">
         <v>45472</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="60">
         <v>45519</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="55" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="A15" s="61">
         <v>45542</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
+      <c r="A16" s="61">
         <v>45577</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="60">
         <v>45589</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="60">
         <v>45593</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="61">
         <v>45598</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="92">
+      <c r="A20" s="62">
         <v>45611</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="61">
         <v>45634</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="92">
+      <c r="A22" s="62">
         <v>45651</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="60">
         <v>45657</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC02B1-1B19-422D-8C62-1122E355442B}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="48.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66">
+        <v>0</v>
+      </c>
+      <c r="D3" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66">
+        <v>0</v>
+      </c>
+      <c r="D4" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66">
+        <v>0</v>
+      </c>
+      <c r="D5" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66">
+        <v>0</v>
+      </c>
+      <c r="D6" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66">
+        <v>0</v>
+      </c>
+      <c r="D7" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66">
+        <v>0</v>
+      </c>
+      <c r="D8" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="65"/>
+      <c r="C9" s="66">
+        <v>0</v>
+      </c>
+      <c r="D9" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66">
+        <v>0</v>
+      </c>
+      <c r="D10" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="65"/>
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="65"/>
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="D12" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="65"/>
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="D13" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="65"/>
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="65"/>
+      <c r="C17" s="66">
+        <v>0</v>
+      </c>
+      <c r="D17" s="67">
+        <f>Tabela13[[#This Row],[Valor ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="46">
+        <f>SUM(Tabela13[[Valor ]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="46">
+        <f>SUM(Tabela13[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BA70B-BFB2-4C3B-8F71-106035F4A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78159C19-FC25-409F-BFC1-F5579A263632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="0" windowWidth="21600" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1616,16 +1616,58 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,48 +1680,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3122,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD542D27-9301-4C9F-891B-53BF451B4FC1}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3201,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="75" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -3244,13 +3244,13 @@
         <f>SUM(M3+N2)</f>
         <v>-0.75999999999930878</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="83"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3286,11 +3286,11 @@
       </c>
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="75" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -3333,13 +3333,13 @@
         <f>SUM(M5+N4)</f>
         <v>-718.07999999999993</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="83"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="75" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3422,13 +3422,13 @@
         <f>SUM(M7+N6)</f>
         <v>-871.58999999999992</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="75"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -3464,11 +3464,11 @@
       </c>
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="76"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="75" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -3515,15 +3515,15 @@
         <f>SUM(M9+N8)</f>
         <v>-2755.7299999999996</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="75" t="s">
+      <c r="Q8" s="81" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="N9" s="73"/>
       <c r="O9" s="73"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="76"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="82"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="77" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -3614,11 +3614,11 @@
         <f>SUM(M11+N10)</f>
         <v>-2604.3700000000008</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
@@ -3658,11 +3658,11 @@
       </c>
       <c r="N11" s="73"/>
       <c r="O11" s="73"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="77" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -3709,13 +3709,13 @@
         <f>SUM(M13+N12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75" t="s">
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="21">
-        <v>-2000</v>
+        <v>-1500</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="21">
-        <v>-2000</v>
+        <v>-2500</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="0"/>
@@ -3756,11 +3756,11 @@
       </c>
       <c r="N13" s="73"/>
       <c r="O13" s="73"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="77" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -3794,26 +3794,26 @@
         <v>0</v>
       </c>
       <c r="L14" s="23">
-        <v>-604.37</v>
+        <v>-104.37</v>
       </c>
       <c r="M14" s="35">
         <f t="shared" si="0"/>
-        <v>-3496.0699999999997</v>
+        <v>-2996.0699999999997</v>
       </c>
       <c r="N14" s="72">
         <v>3600</v>
       </c>
       <c r="O14" s="72">
         <f>SUM(M15+N14)</f>
-        <v>103.93000000000029</v>
-      </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75" t="s">
+        <v>603.93000000000029</v>
+      </c>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
@@ -3845,19 +3845,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="25">
-        <v>-604.37</v>
+        <v>-104.37</v>
       </c>
       <c r="M15" s="32">
         <f t="shared" si="0"/>
-        <v>-3496.0699999999997</v>
-      </c>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
+        <v>-2996.0699999999997</v>
+      </c>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="89" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -3904,13 +3904,13 @@
         <f>SUM(M17+N16)</f>
         <v>2392.04</v>
       </c>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="79" t="s">
+      <c r="P16" s="91"/>
+      <c r="Q16" s="93" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
@@ -3950,11 +3950,11 @@
       </c>
       <c r="N17" s="88"/>
       <c r="O17" s="88"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="80"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="84" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -3994,20 +3994,20 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="86">
         <v>3600</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="86">
         <f t="shared" ref="O18:O20" si="1">SUM(M19+N18)</f>
         <v>2525.37</v>
       </c>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78" t="s">
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="95" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -4091,18 +4091,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="86">
         <v>2200</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="86">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -4142,8 +4142,8 @@
       </c>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
@@ -4193,8 +4193,8 @@
         <f t="shared" ref="O22:O32" si="2">SUM(M23+N22)</f>
         <v>2760.37</v>
       </c>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75" t="s">
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4239,8 +4239,8 @@
       </c>
       <c r="N23" s="71"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="27">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F24" s="27">
         <v>0</v>
@@ -4281,17 +4281,17 @@
       </c>
       <c r="M24" s="47">
         <f t="shared" ref="M24:M25" si="3">SUM(C24:L24)</f>
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="N24" s="71">
         <v>5000</v>
       </c>
       <c r="O24" s="72">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
+        <v>3500</v>
+      </c>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="70"/>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="21">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F25" s="21">
         <v>0</v>
@@ -4330,12 +4330,12 @@
       </c>
       <c r="M25" s="31">
         <f t="shared" si="3"/>
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="N25" s="71"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
@@ -4385,8 +4385,8 @@
         <f t="shared" si="2"/>
         <v>781.56</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="70"/>
@@ -4429,8 +4429,8 @@
       </c>
       <c r="N27" s="71"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
@@ -4480,8 +4480,8 @@
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75" t="s">
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4526,8 +4526,8 @@
       </c>
       <c r="N29" s="71"/>
       <c r="O29" s="73"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
@@ -4721,33 +4721,43 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="N18:N19"/>
@@ -4764,43 +4774,33 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="O2:O33">

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78159C19-FC25-409F-BFC1-F5579A263632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B13DF-49EF-40C0-94B9-CA91C0149F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="21600" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="12" r:id="rId1"/>
     <sheet name="Pagamentos Mensais" sheetId="16" r:id="rId2"/>
-    <sheet name="Projeção Financeira" sheetId="4" r:id="rId3"/>
-    <sheet name="Padrões" sheetId="14" r:id="rId4"/>
-    <sheet name="Planilha2" sheetId="18" r:id="rId5"/>
-    <sheet name="Guardar" sheetId="19" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="20" r:id="rId3"/>
+    <sheet name="Projeção Financeira" sheetId="4" r:id="rId4"/>
+    <sheet name="Padrões" sheetId="14" r:id="rId5"/>
+    <sheet name="Feriados" sheetId="18" r:id="rId6"/>
+    <sheet name="Guardar" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="TítuloDaColuna1">#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>Reserva</t>
   </si>
@@ -435,6 +436,21 @@
   </si>
   <si>
     <t>Guardando Casal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Em, 2. Especial, 3. Card -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color theme="0"/>
+        <rFont val="Aharoni"/>
+        <charset val="177"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -450,7 +466,7 @@
     <numFmt numFmtId="169" formatCode="mmmm\,\ yyyy;@"/>
     <numFmt numFmtId="170" formatCode="dddd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="11"/>
@@ -701,8 +717,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,8 +1009,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1330,6 +1373,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1390,7 +1499,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1601,85 +1710,128 @@
     <xf numFmtId="4" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="46" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="46" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="48" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="31" fillId="48" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="48" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3120,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD542D27-9301-4C9F-891B-53BF451B4FC1}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3353,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -3237,20 +3389,20 @@
         <f t="shared" ref="M2:M23" si="0">SUM(C2:L2)</f>
         <v>-13172.380000000001</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="85">
         <v>6157.64</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="85">
         <f>SUM(M3+N2)</f>
         <v>-0.75999999999930878</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="79"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3284,13 +3436,13 @@
         <f t="shared" si="0"/>
         <v>-6158.4</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -3326,20 +3478,20 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="85">
         <v>6763.26</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="85">
         <f>SUM(M5+N4)</f>
         <v>-718.07999999999993</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="79"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -3373,13 +3525,13 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3415,20 +3567,20 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="85">
         <v>1623.93</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="85">
         <f>SUM(M7+N6)</f>
         <v>-871.58999999999992</v>
       </c>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="82"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -3462,13 +3614,13 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="82"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="83"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -3508,22 +3660,22 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="85">
         <v>3623</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="85">
         <f>SUM(M9+N8)</f>
         <v>-2755.7299999999996</v>
       </c>
-      <c r="P8" s="79" t="s">
+      <c r="P8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="82" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
@@ -3561,13 +3713,13 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="82"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="83"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -3582,10 +3734,10 @@
       <c r="E10" s="23">
         <v>-235</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="70">
         <v>-133.33000000000001</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="70">
         <v>-805.38</v>
       </c>
       <c r="H10" s="23">
@@ -3607,18 +3759,18 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="85">
         <v>3600</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="85">
         <f>SUM(M11+N10)</f>
         <v>-2604.3700000000008</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
@@ -3631,10 +3783,10 @@
       <c r="E11" s="21">
         <v>-235</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="71">
         <v>-133.33000000000001</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="71">
         <v>-805.38</v>
       </c>
       <c r="H11" s="21">
@@ -3656,13 +3808,13 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -3702,20 +3854,20 @@
         <f t="shared" si="0"/>
         <v>-5604.37</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="85">
         <v>4000</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="85">
         <f>SUM(M13+N12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81" t="s">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3754,13 +3906,13 @@
         <f t="shared" si="0"/>
         <v>-4000</v>
       </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="92" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -3800,20 +3952,20 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="85">
         <v>3600</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="85">
         <f>SUM(M15+N14)</f>
         <v>603.93000000000029</v>
       </c>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81" t="s">
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
@@ -3851,13 +4003,13 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="94" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -3897,20 +4049,20 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="90">
         <v>3600</v>
       </c>
-      <c r="O16" s="87">
+      <c r="O16" s="90">
         <f>SUM(M17+N16)</f>
         <v>2392.04</v>
       </c>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="93" t="s">
+      <c r="P16" s="96"/>
+      <c r="Q16" s="98" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
@@ -3948,13 +4100,13 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="94"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="87" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -3994,20 +4146,20 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N18" s="86">
+      <c r="N18" s="89">
         <v>3600</v>
       </c>
-      <c r="O18" s="86">
+      <c r="O18" s="89">
         <f t="shared" ref="O18:O20" si="1">SUM(M19+N18)</f>
         <v>2525.37</v>
       </c>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83" t="s">
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
@@ -4045,13 +4197,13 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="92" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -4091,18 +4243,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="89">
         <v>2200</v>
       </c>
-      <c r="O20" s="86">
+      <c r="O20" s="89">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -4140,13 +4292,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="100" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -4186,20 +4338,20 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N22" s="71">
+      <c r="N22" s="101">
         <v>3600</v>
       </c>
-      <c r="O22" s="72">
+      <c r="O22" s="85">
         <f t="shared" ref="O22:O32" si="2">SUM(M23+N22)</f>
         <v>2760.37</v>
       </c>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81" t="s">
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
@@ -4237,13 +4389,13 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="100" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -4283,18 +4435,18 @@
         <f t="shared" ref="M24:M25" si="3">SUM(C24:L24)</f>
         <v>-1500</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="101">
         <v>5000</v>
       </c>
-      <c r="O24" s="72">
+      <c r="O24" s="85">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
@@ -4332,13 +4484,13 @@
         <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -4378,18 +4530,18 @@
         <f t="shared" ref="M26:M29" si="4">SUM(C26:L26)</f>
         <v>-318.44</v>
       </c>
-      <c r="N26" s="71">
+      <c r="N26" s="101">
         <v>1100</v>
       </c>
-      <c r="O26" s="72">
+      <c r="O26" s="85">
         <f t="shared" si="2"/>
         <v>781.56</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
@@ -4427,13 +4579,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="100" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -4473,20 +4625,20 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="101">
         <v>3600</v>
       </c>
-      <c r="O28" s="72">
+      <c r="O28" s="85">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81" t="s">
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
@@ -4524,13 +4676,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N29" s="71"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="100" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="36" t="s">
@@ -4570,18 +4722,18 @@
         <f t="shared" ref="M30:M31" si="5">SUM(C30:L30)</f>
         <v>-318.44</v>
       </c>
-      <c r="N30" s="71">
+      <c r="N30" s="101">
         <v>3600</v>
       </c>
-      <c r="O30" s="72">
+      <c r="O30" s="85">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="24" t="s">
         <v>22</v>
       </c>
@@ -4619,13 +4771,13 @@
         <f t="shared" si="5"/>
         <v>-318.44</v>
       </c>
-      <c r="N31" s="71"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="100" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -4665,18 +4817,18 @@
         <f t="shared" ref="M32:M33" si="6">SUM(C32:L32)</f>
         <v>-318.44</v>
       </c>
-      <c r="N32" s="71">
+      <c r="N32" s="101">
         <v>3600</v>
       </c>
-      <c r="O32" s="72">
+      <c r="O32" s="85">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>22</v>
       </c>
@@ -4714,13 +4866,40 @@
         <f t="shared" si="6"/>
         <v>-318.44</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="108"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="81">
+    <mergeCell ref="B35:E38"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="O32:O33"/>
@@ -4731,6 +4910,11 @@
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="A24:A25"/>
@@ -4796,11 +4980,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="O2:O33">
@@ -4820,10 +4999,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE25B72-97C0-4750-B116-B7EE48AB085C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="72">
+        <v>-5604.37</v>
+      </c>
+      <c r="B1" s="73">
+        <v>4000</v>
+      </c>
+      <c r="C1" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>-2996.0699999999997</v>
+      </c>
+      <c r="B2" s="73">
+        <v>3600</v>
+      </c>
+      <c r="C2" s="73">
+        <v>603.92999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>-1207.96</v>
+      </c>
+      <c r="B3" s="73">
+        <v>3600</v>
+      </c>
+      <c r="C3" s="73">
+        <v>2392.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>-1074.6300000000001</v>
+      </c>
+      <c r="B4" s="73">
+        <v>3600</v>
+      </c>
+      <c r="C4" s="73">
+        <v>2525.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
+        <v>-839.63</v>
+      </c>
+      <c r="B5" s="73">
+        <v>3600</v>
+      </c>
+      <c r="C5" s="73">
+        <v>2760.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>-1500</v>
+      </c>
+      <c r="B6" s="73">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF574219-F3FE-4451-A9A8-FE36302370A0}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4845,23 +5105,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="F1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="K1" s="97" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="K1" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5484,7 +5744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA86F1B-418B-45F8-8C73-87E6F551716D}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5548,12 +5808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F2357-CD4D-41B9-983D-566E0CAA8DA4}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,7 +6049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC02B1-1B19-422D-8C62-1122E355442B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5806,12 +6066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B13DF-49EF-40C0-94B9-CA91C0149F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2AED5-6388-4C9F-8BCA-5EFEFC1586EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,112 +1726,112 @@
     <xf numFmtId="4" fontId="31" fillId="48" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3274,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD542D27-9301-4C9F-891B-53BF451B4FC1}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3353,7 +3353,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="110" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -3389,20 +3389,20 @@
         <f t="shared" ref="M2:M23" si="0">SUM(C2:L2)</f>
         <v>-13172.380000000001</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="87">
         <v>6157.64</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="87">
         <f>SUM(M3+N2)</f>
         <v>-0.75999999999930878</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="80"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3436,13 +3436,13 @@
         <f t="shared" si="0"/>
         <v>-6158.4</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="110" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -3478,20 +3478,20 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="87">
         <v>6763.26</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="87">
         <f>SUM(M5+N4)</f>
         <v>-718.07999999999993</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="80"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -3525,13 +3525,13 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="110" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3567,20 +3567,20 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="87">
         <v>1623.93</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="87">
         <f>SUM(M7+N6)</f>
         <v>-871.58999999999992</v>
       </c>
-      <c r="P6" s="80" t="s">
+      <c r="P6" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="82"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -3614,13 +3614,13 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="83"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="110" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -3660,22 +3660,22 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="87">
         <v>3623</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="87">
         <f>SUM(M9+N8)</f>
         <v>-2755.7299999999996</v>
       </c>
-      <c r="P8" s="80" t="s">
+      <c r="P8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="82" t="s">
+      <c r="Q8" s="90" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
@@ -3713,13 +3713,13 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="83"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="91"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="108" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -3759,18 +3759,18 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="87">
         <v>3600</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="87">
         <f>SUM(M11+N10)</f>
         <v>-2604.3700000000008</v>
       </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
@@ -3808,13 +3808,13 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="108" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -3854,20 +3854,20 @@
         <f t="shared" si="0"/>
         <v>-5604.37</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="87">
         <v>4000</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O12" s="87">
         <f>SUM(M13+N12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82" t="s">
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3906,13 +3906,13 @@
         <f t="shared" si="0"/>
         <v>-4000</v>
       </c>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="96" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -3952,20 +3952,20 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="87">
         <v>3600</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="87">
         <f>SUM(M15+N14)</f>
         <v>603.93000000000029</v>
       </c>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82" t="s">
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
@@ -4003,13 +4003,13 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="104" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4049,20 +4049,20 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N16" s="102">
         <v>3600</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="102">
         <f>SUM(M17+N16)</f>
         <v>2392.04</v>
       </c>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="98" t="s">
+      <c r="P16" s="106"/>
+      <c r="Q16" s="94" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
@@ -4100,13 +4100,13 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="99"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="95"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="100" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4146,20 +4146,20 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N18" s="89">
+      <c r="N18" s="92">
         <v>3600</v>
       </c>
-      <c r="O18" s="89">
+      <c r="O18" s="92">
         <f t="shared" ref="O18:O20" si="1">SUM(M19+N18)</f>
         <v>2525.37</v>
       </c>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84" t="s">
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
@@ -4197,13 +4197,13 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -4243,18 +4243,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="92">
         <v>2200</v>
       </c>
-      <c r="O20" s="89">
+      <c r="O20" s="92">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -4292,13 +4292,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="85" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -4338,20 +4338,20 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N22" s="101">
+      <c r="N22" s="86">
         <v>3600</v>
       </c>
-      <c r="O22" s="85">
+      <c r="O22" s="87">
         <f t="shared" ref="O22:O32" si="2">SUM(M23+N22)</f>
         <v>2760.37</v>
       </c>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82" t="s">
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
@@ -4389,13 +4389,13 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="85" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -4435,18 +4435,18 @@
         <f t="shared" ref="M24:M25" si="3">SUM(C24:L24)</f>
         <v>-1500</v>
       </c>
-      <c r="N24" s="101">
+      <c r="N24" s="86">
         <v>5000</v>
       </c>
-      <c r="O24" s="85">
+      <c r="O24" s="87">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
@@ -4484,13 +4484,13 @@
         <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
-      <c r="N25" s="101"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="85" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -4530,18 +4530,18 @@
         <f t="shared" ref="M26:M29" si="4">SUM(C26:L26)</f>
         <v>-318.44</v>
       </c>
-      <c r="N26" s="101">
+      <c r="N26" s="86">
         <v>1100</v>
       </c>
-      <c r="O26" s="85">
+      <c r="O26" s="87">
         <f t="shared" si="2"/>
         <v>781.56</v>
       </c>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
@@ -4579,13 +4579,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N27" s="101"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="85" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -4625,20 +4625,20 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N28" s="101">
+      <c r="N28" s="86">
         <v>3600</v>
       </c>
-      <c r="O28" s="85">
+      <c r="O28" s="87">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82" t="s">
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
@@ -4676,13 +4676,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N29" s="101"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="85" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="36" t="s">
@@ -4722,18 +4722,18 @@
         <f t="shared" ref="M30:M31" si="5">SUM(C30:L30)</f>
         <v>-318.44</v>
       </c>
-      <c r="N30" s="101">
+      <c r="N30" s="86">
         <v>3600</v>
       </c>
-      <c r="O30" s="85">
+      <c r="O30" s="87">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="24" t="s">
         <v>22</v>
       </c>
@@ -4771,13 +4771,13 @@
         <f t="shared" si="5"/>
         <v>-318.44</v>
       </c>
-      <c r="N31" s="101"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="85" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -4817,18 +4817,18 @@
         <f t="shared" ref="M32:M33" si="6">SUM(C32:L32)</f>
         <v>-318.44</v>
       </c>
-      <c r="N32" s="101">
+      <c r="N32" s="86">
         <v>3600</v>
       </c>
-      <c r="O32" s="85">
+      <c r="O32" s="87">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="24" t="s">
         <v>22</v>
       </c>
@@ -4866,61 +4866,82 @@
         <f t="shared" si="6"/>
         <v>-318.44</v>
       </c>
-      <c r="N33" s="101"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="106"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="108"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B35:E38"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="Q22:Q23"/>
@@ -4937,49 +4958,28 @@
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="B35:E38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="O2:O33">
@@ -5084,7 +5084,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,10 +5736,11 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2AED5-6388-4C9F-8BCA-5EFEFC1586EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C907EB4-9391-498D-B546-719B9BA260AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
   <si>
     <t>Reserva</t>
   </si>
@@ -451,6 +451,111 @@
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>patricia</t>
+  </si>
+  <si>
+    <t>ITENS</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Pasta de Dente</t>
+  </si>
+  <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>Óleo</t>
+  </si>
+  <si>
+    <t>Agua Sanitária</t>
+  </si>
+  <si>
+    <t>Absorvente</t>
+  </si>
+  <si>
+    <t>Sabão em Pó</t>
+  </si>
+  <si>
+    <t>Desinfetante</t>
+  </si>
+  <si>
+    <t>Filtro de Papel</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Desodorante</t>
+  </si>
+  <si>
+    <t>Sabonete</t>
+  </si>
+  <si>
+    <t>Hidratante</t>
+  </si>
+  <si>
+    <t>Repelente</t>
+  </si>
+  <si>
+    <t>Shampoo/Condicionador</t>
+  </si>
+  <si>
+    <t>Escova de Dente</t>
+  </si>
+  <si>
+    <t>Pano de Chão</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Toalha</t>
+  </si>
+  <si>
+    <t>Geladeira</t>
+  </si>
+  <si>
+    <t>Vassoura</t>
+  </si>
+  <si>
+    <t>Rodo</t>
+  </si>
+  <si>
+    <t>Balde</t>
+  </si>
+  <si>
+    <t>Cama/Colchão</t>
+  </si>
+  <si>
+    <t>Fogão/Butijão</t>
+  </si>
+  <si>
+    <t>Roupa de Cama</t>
+  </si>
+  <si>
+    <t>Travesseiro</t>
+  </si>
+  <si>
+    <t>Maquina de Lavar</t>
+  </si>
+  <si>
+    <t>Lampada</t>
+  </si>
+  <si>
+    <t>Coador</t>
+  </si>
+  <si>
+    <t>Panela/Talher</t>
+  </si>
+  <si>
+    <t>Copo/Prato</t>
+  </si>
+  <si>
+    <t>Papel Higienico</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1439,6 +1544,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1499,7 +1615,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1726,6 +1842,99 @@
     <xf numFmtId="4" fontId="31" fillId="48" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1751,87 +1960,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1892,7 +2020,7 @@
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2003,6 +2131,80 @@
         <right style="thin">
           <color theme="1"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2730,9 +2932,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Tarefas" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tarefas" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="firstColumn" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2755,7 +2957,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2C4E7B8B-1E69-494B-B6E4-83992BCEC089}" name="Tabela10" displayName="Tabela10" ref="A1:D1048575" totalsRowShown="0">
   <autoFilter ref="A1:D1048575" xr:uid="{2C4E7B8B-1E69-494B-B6E4-83992BCEC089}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{66FD0B0B-2B5A-4A27-BF5A-14DDD6D1DA9F}" name="Mês" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{66FD0B0B-2B5A-4A27-BF5A-14DDD6D1DA9F}" name="Mês" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{E0E2E344-4059-478E-8380-A62A4544D313}" name="Categoria"/>
     <tableColumn id="4" xr3:uid="{81CA6082-7653-41D5-B700-A3339C1416E3}" name="Detalhe"/>
     <tableColumn id="3" xr3:uid="{57833B8B-4CC0-4759-A6E4-EBE9258D7588}" name="Valor"/>
@@ -2765,21 +2967,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}" name="Tabela14" displayName="Tabela14" ref="B1:M33" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}" name="Tabela14" displayName="Tabela14" ref="B1:M33" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="B1:M33" xr:uid="{73F72157-B824-426F-A89A-1BD6EBD7D91F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DC98BF17-25EA-4A6D-A222-0C9268770B6B}" name="DETALHES" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{6AB029B8-38B5-479B-9F3C-1BEDEB88A31C}" name="Cartão Sicoob" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{565EEFCA-787E-4372-B972-8B3B535E433D}" name="Conta Sicoob" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{56614E03-20EB-4F91-8C35-C68E166BF43D}" name="Compras Patricia" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{1B1C7D1D-F1C7-4923-B69F-7ABD629E17B9}" name="Cartão Inter" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{5C53C81A-C32C-4C73-8CE3-76CA24CD54F7}" name="Cartão Nu" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{44A368D6-63DA-4E81-8C29-B763E9C245BD}" name="Pic Itaú" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D2B1D471-83C1-4DDC-99B0-AC1D19F716D0}" name="em Itaú" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{DE6A3E11-694E-4E3E-BE85-1EBA8E61EB49}" name="Outros" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{303C8697-2EC3-4253-9ED7-1BC6C1427657}" name="Pix" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{208090BE-2051-4E00-822F-7E0A126A3550}" name="Limite" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{3892E13E-0BEA-44F3-9F46-7F7E5036F4C2}" name="TOTAL" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{DC98BF17-25EA-4A6D-A222-0C9268770B6B}" name="DETALHES" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{6AB029B8-38B5-479B-9F3C-1BEDEB88A31C}" name="Cartão Sicoob" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{565EEFCA-787E-4372-B972-8B3B535E433D}" name="Conta Sicoob" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{56614E03-20EB-4F91-8C35-C68E166BF43D}" name="Compras Patricia" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{1B1C7D1D-F1C7-4923-B69F-7ABD629E17B9}" name="Cartão Inter" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5C53C81A-C32C-4C73-8CE3-76CA24CD54F7}" name="Cartão Nu" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{44A368D6-63DA-4E81-8C29-B763E9C245BD}" name="Pic Itaú" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{D2B1D471-83C1-4DDC-99B0-AC1D19F716D0}" name="em Itaú" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{DE6A3E11-694E-4E3E-BE85-1EBA8E61EB49}" name="Outros" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{303C8697-2EC3-4253-9ED7-1BC6C1427657}" name="Pix" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{208090BE-2051-4E00-822F-7E0A126A3550}" name="Limite" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{3892E13E-0BEA-44F3-9F46-7F7E5036F4C2}" name="TOTAL" dataDxfId="24">
       <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2794,10 +2996,10 @@
     <sortCondition ref="H2:H17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3D9FD61-F40A-42C1-A346-F7CEFA346346}" name="Item" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{13531D0C-2026-45F4-AF9B-B2DDF27ADF47}" name="Tipo" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{DBCE5185-37EB-4E27-B7C7-873A781711FA}" name="Valor (em reais)" dataDxfId="19" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{84E45942-56ED-4DF4-B610-9D69B3E98706}" name="Em um ano " dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{D3D9FD61-F40A-42C1-A346-F7CEFA346346}" name="Item" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{13531D0C-2026-45F4-AF9B-B2DDF27ADF47}" name="Tipo" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{DBCE5185-37EB-4E27-B7C7-873A781711FA}" name="Valor (em reais)" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{84E45942-56ED-4DF4-B610-9D69B3E98706}" name="Em um ano " dataDxfId="20">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2810,9 +3012,9 @@
   <autoFilter ref="A2:D15" xr:uid="{2F104304-A7A1-4C5B-A8E2-07F7BFE24153}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7391447C-F2CB-42B1-B905-9F6B3B988BCE}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{716A4D9F-914D-4AC8-8016-CDA5160F813D}" name="Valor (em reais)" dataDxfId="17" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{B7352B0B-A9B9-459D-97D5-4DC64C9EC5E6}" name="Detalhe" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{E899AD60-F710-4F49-8F95-37AEADD1D8BA}" name="Em um ano " dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{716A4D9F-914D-4AC8-8016-CDA5160F813D}" name="Valor (em reais)" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{B7352B0B-A9B9-459D-97D5-4DC64C9EC5E6}" name="Detalhe" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{E899AD60-F710-4F49-8F95-37AEADD1D8BA}" name="Em um ano " dataDxfId="17">
       <calculatedColumnFormula>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2821,12 +3023,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}" name="Tabela1616" displayName="Tabela1616" ref="K2:M9" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}" name="Tabela1616" displayName="Tabela1616" ref="K2:M9" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="K2:M9" xr:uid="{032C2053-5D08-4070-A223-77D01DB710D6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{027FB6AB-4D72-47CF-B67C-6C5C719C8074}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{0490FA6B-03EC-48A1-87AC-1A67672827BF}" name="Valor (em reais)" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{97DE0BDE-5EA8-4E4B-A511-F417889C49DE}" name="Em um ano " dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{0490FA6B-03EC-48A1-87AC-1A67672827BF}" name="Valor (em reais)" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{97DE0BDE-5EA8-4E4B-A511-F417889C49DE}" name="Em um ano " dataDxfId="14">
       <calculatedColumnFormula>SUM(Tabela1616[[#This Row],[Valor (em reais)]]*12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2835,10 +3037,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}" name="Tabela9" displayName="Tabela9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7" headerRowCellStyle="Título 2" dataCellStyle="Detalhes da tabela">
-  <autoFilter ref="A1:A8" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D46D04CE-4792-4FA4-B13C-1C8F73206D89}" name="Despesas" dataDxfId="6" dataCellStyle="Detalhes da tabela"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}" name="Tabela9" displayName="Tabela9" ref="A1:C23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" headerRowCellStyle="Título 2" dataCellStyle="Detalhes da tabela">
+  <autoFilter ref="A1:C23" xr:uid="{5C657092-DD09-4A45-AB2A-0F72DC5469AE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D46D04CE-4792-4FA4-B13C-1C8F73206D89}" name="Despesas" dataDxfId="8" dataCellStyle="Detalhes da tabela"/>
+    <tableColumn id="2" xr3:uid="{B140EFCE-4EE5-4B03-B489-F64390FC5D9F}" name="ITENS" dataDxfId="7" dataCellStyle="Detalhes da tabela"/>
+    <tableColumn id="3" xr3:uid="{B557B7C9-C339-45CA-95D8-BA1324C6C457}" name="Casa" dataDxfId="6" dataCellStyle="Detalhes da tabela"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3128,7 +3332,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD542D27-9301-4C9F-891B-53BF451B4FC1}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3557,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -3389,20 +3593,20 @@
         <f t="shared" ref="M2:M23" si="0">SUM(C2:L2)</f>
         <v>-13172.380000000001</v>
       </c>
-      <c r="N2" s="87">
+      <c r="N2" s="89">
         <v>6157.64</v>
       </c>
-      <c r="O2" s="87">
+      <c r="O2" s="89">
         <f>SUM(M3+N2)</f>
         <v>-0.75999999999930878</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="98"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3436,13 +3640,13 @@
         <f t="shared" si="0"/>
         <v>-6158.4</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -3478,20 +3682,20 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="89">
         <v>6763.26</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="89">
         <f>SUM(M5+N4)</f>
         <v>-718.07999999999993</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="98"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -3525,13 +3729,13 @@
         <f t="shared" si="0"/>
         <v>-7481.34</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="80" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3567,20 +3771,20 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="89">
         <v>1623.93</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="89">
         <f>SUM(M7+N6)</f>
         <v>-871.58999999999992</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="90"/>
+      <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -3614,13 +3818,13 @@
         <f t="shared" si="0"/>
         <v>-2495.52</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="87"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -3660,22 +3864,22 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="89">
         <v>3623</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="89">
         <f>SUM(M9+N8)</f>
         <v>-2755.7299999999996</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="Q8" s="86" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
@@ -3713,13 +3917,13 @@
         <f t="shared" si="0"/>
         <v>-6378.73</v>
       </c>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="91"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="87"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="82" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -3759,18 +3963,18 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="89">
         <v>3600</v>
       </c>
-      <c r="O10" s="87">
+      <c r="O10" s="89">
         <f>SUM(M11+N10)</f>
         <v>-2604.3700000000008</v>
       </c>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
@@ -3808,13 +4012,13 @@
         <f t="shared" si="0"/>
         <v>-6204.3700000000008</v>
       </c>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="82" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -3854,20 +4058,20 @@
         <f t="shared" si="0"/>
         <v>-5604.37</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="89">
         <v>4000</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="89">
         <f>SUM(M13+N12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90" t="s">
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3906,10 +4110,10 @@
         <f t="shared" si="0"/>
         <v>-4000</v>
       </c>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
@@ -3952,15 +4156,15 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="89">
         <v>3600</v>
       </c>
-      <c r="O14" s="87">
+      <c r="O14" s="89">
         <f>SUM(M15+N14)</f>
         <v>603.93000000000029</v>
       </c>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90" t="s">
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4003,13 +4207,13 @@
         <f t="shared" si="0"/>
         <v>-2996.0699999999997</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="98" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4049,20 +4253,20 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N16" s="102">
+      <c r="N16" s="94">
         <v>3600</v>
       </c>
-      <c r="O16" s="102">
+      <c r="O16" s="94">
         <f>SUM(M17+N16)</f>
         <v>2392.04</v>
       </c>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="94" t="s">
+      <c r="P16" s="100"/>
+      <c r="Q16" s="102" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="105"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
@@ -4100,13 +4304,13 @@
         <f t="shared" si="0"/>
         <v>-1207.96</v>
       </c>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="103"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="91" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4146,20 +4350,20 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N18" s="92">
+      <c r="N18" s="93">
         <v>3600</v>
       </c>
-      <c r="O18" s="92">
+      <c r="O18" s="93">
         <f t="shared" ref="O18:O20" si="1">SUM(M19+N18)</f>
         <v>2525.37</v>
       </c>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93" t="s">
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
@@ -4197,10 +4401,10 @@
         <f t="shared" si="0"/>
         <v>-1074.6300000000001</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="96" t="s">
@@ -4243,15 +4447,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N20" s="93">
         <v>2200</v>
       </c>
-      <c r="O20" s="92">
+      <c r="O20" s="93">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="97"/>
@@ -4292,13 +4496,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="104" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -4338,20 +4542,20 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N22" s="86">
+      <c r="N22" s="105">
         <v>3600</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="89">
         <f t="shared" ref="O22:O32" si="2">SUM(M23+N22)</f>
         <v>2760.37</v>
       </c>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90" t="s">
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
@@ -4389,13 +4593,13 @@
         <f t="shared" si="0"/>
         <v>-839.63</v>
       </c>
-      <c r="N23" s="86"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="104" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -4435,18 +4639,18 @@
         <f t="shared" ref="M24:M25" si="3">SUM(C24:L24)</f>
         <v>-1500</v>
       </c>
-      <c r="N24" s="86">
+      <c r="N24" s="105">
         <v>5000</v>
       </c>
-      <c r="O24" s="87">
+      <c r="O24" s="89">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
@@ -4484,13 +4688,13 @@
         <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
-      <c r="N25" s="86"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="104" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -4530,18 +4734,18 @@
         <f t="shared" ref="M26:M29" si="4">SUM(C26:L26)</f>
         <v>-318.44</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="105">
         <v>1100</v>
       </c>
-      <c r="O26" s="87">
+      <c r="O26" s="89">
         <f t="shared" si="2"/>
         <v>781.56</v>
       </c>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
@@ -4579,13 +4783,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N27" s="86"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="104" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -4625,20 +4829,20 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N28" s="86">
+      <c r="N28" s="105">
         <v>3600</v>
       </c>
-      <c r="O28" s="87">
+      <c r="O28" s="89">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90" t="s">
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
@@ -4676,13 +4880,13 @@
         <f t="shared" si="4"/>
         <v>-318.44</v>
       </c>
-      <c r="N29" s="86"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="36" t="s">
@@ -4722,18 +4926,18 @@
         <f t="shared" ref="M30:M31" si="5">SUM(C30:L30)</f>
         <v>-318.44</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="105">
         <v>3600</v>
       </c>
-      <c r="O30" s="87">
+      <c r="O30" s="89">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="24" t="s">
         <v>22</v>
       </c>
@@ -4771,13 +4975,13 @@
         <f t="shared" si="5"/>
         <v>-318.44</v>
       </c>
-      <c r="N31" s="86"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="104" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -4817,18 +5021,18 @@
         <f t="shared" ref="M32:M33" si="6">SUM(C32:L32)</f>
         <v>-318.44</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="105">
         <v>3600</v>
       </c>
-      <c r="O32" s="87">
+      <c r="O32" s="89">
         <f t="shared" si="2"/>
         <v>3281.56</v>
       </c>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="24" t="s">
         <v>22</v>
       </c>
@@ -4866,61 +5070,82 @@
         <f t="shared" si="6"/>
         <v>-318.44</v>
       </c>
-      <c r="N33" s="86"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="109"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="B35:E38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="N18:N19"/>
@@ -4937,49 +5162,28 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="B35:E38"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="O2:O33">
@@ -5084,7 +5288,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,23 +5309,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="F1" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5254,7 +5458,7 @@
       <c r="G5" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="77">
         <v>10.95</v>
       </c>
       <c r="I5" s="2">
@@ -5281,16 +5485,16 @@
         <f>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</f>
         <v>2000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="18">
         <v>17.45</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="19">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
         <v>209.39999999999998</v>
       </c>
@@ -5353,7 +5557,7 @@
       <c r="G8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="77">
         <v>20</v>
       </c>
       <c r="I8" s="2">
@@ -5380,16 +5584,16 @@
         <f>SUM(Tabela17[[#This Row],[Valor (em reais)]]*1)</f>
         <v>2000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="18">
         <v>21.9</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="19">
         <f>SUM(Tabela1[[#This Row],[Valor (em reais)]]*12)</f>
         <v>262.79999999999995</v>
       </c>
@@ -5690,6 +5894,12 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22">
+        <v>35.85</v>
+      </c>
       <c r="J22" s="39"/>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -5747,10 +5957,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA86F1B-418B-45F8-8C73-87E6F551716D}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5758,45 +5968,204 @@
     <col min="1" max="1" width="17.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6067,12 +6436,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
